--- a/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>50.12868756604367</v>
+        <v>50.25744189038662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>43.66506278687756</v>
+        <v>43.77412050857023</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37.38135788044389</v>
+        <v>37.72804718482013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23.83669639446767</v>
+        <v>24.50874839407403</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.40505948731204</v>
+        <v>1.41926455914837</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.139127494025366</v>
+        <v>1.138010312313216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8258743272664965</v>
+        <v>0.8259819844061447</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4029584590801061</v>
+        <v>0.4109360650608823</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>56.95401002464919</v>
+        <v>57.71003342656441</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>51.27206720216888</v>
+        <v>51.23900809995374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46.6978379262543</v>
+        <v>46.5623340660977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.92258258723093</v>
+        <v>33.24201539980788</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.880574362275528</v>
+        <v>1.926294961334975</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.571999082600618</v>
+        <v>1.569420962085927</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.203354456762983</v>
+        <v>1.198258592627068</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6302415181302602</v>
+        <v>0.6315381237980239</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>35.21551113235054</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27.39924121172701</v>
+        <v>27.39924121172704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.564031582698043</v>
@@ -749,7 +749,7 @@
         <v>0.6556580685109937</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4178824364358051</v>
+        <v>0.4178824364358057</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>47.79385337979634</v>
+        <v>47.68913508687684</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>36.5317544139686</v>
+        <v>36.52810122291469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32.64815546351908</v>
+        <v>32.6728357746284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24.58414952207377</v>
+        <v>24.52460909024432</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.385117708105198</v>
+        <v>1.375429572006822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7749492396266593</v>
+        <v>0.7669574542236981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5858467956154303</v>
+        <v>0.589952828369345</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3597447076767299</v>
+        <v>0.3642486090744936</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>53.67255736876667</v>
+        <v>53.68127047683343</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>42.26221562240241</v>
+        <v>42.49191549704568</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37.89505323308067</v>
+        <v>37.98561023507103</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.16061954187648</v>
+        <v>30.04585226984271</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.751104980979755</v>
+        <v>1.76379936175394</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9823342834735929</v>
+        <v>0.9843093976637637</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7291210890034207</v>
+        <v>0.7366008044505663</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4745207100199911</v>
+        <v>0.4752184043636346</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>20.3347415379594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17.90674862782511</v>
+        <v>17.90674862782512</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8978289692145338</v>
@@ -849,7 +849,7 @@
         <v>0.3082858964074266</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2476122345049048</v>
+        <v>0.247612234504905</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>30.93458834740221</v>
+        <v>31.51398143457114</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>21.11670103039727</v>
+        <v>21.21118768389349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.09322538437907</v>
+        <v>15.19685924151184</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.58593986512664</v>
+        <v>13.41208530131584</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6712723792718128</v>
+        <v>0.6942992521549307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3646638090354751</v>
+        <v>0.3652328222354169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2197374278680713</v>
+        <v>0.2180408153355443</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.17920685116132</v>
+        <v>0.177149466186911</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>42.70743216871443</v>
+        <v>43.44533786226863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>33.4576598364849</v>
+        <v>33.75621016905577</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.9093065268276</v>
+        <v>25.42853568876888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.26240127174492</v>
+        <v>22.59761304370327</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.114664798995203</v>
+        <v>1.161429617929992</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6660741258530594</v>
+        <v>0.6760228681264672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4218670479640839</v>
+        <v>0.4088198351806954</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3216388050748781</v>
+        <v>0.3310323673638235</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>47.79756877134323</v>
+        <v>47.63101433768679</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>37.69958356575852</v>
+        <v>37.8042227295585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31.9699982101985</v>
+        <v>32.01427806115032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23.29122707281029</v>
+        <v>23.08379859463164</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.341216295503924</v>
+        <v>1.329736050061783</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8355638437321672</v>
+        <v>0.8364071484039285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5868922365281806</v>
+        <v>0.5850806244351828</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3481860290560864</v>
+        <v>0.3427496539959135</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>51.87944953805014</v>
+        <v>51.78796518749205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>42.12589261689279</v>
+        <v>42.05397807410887</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>36.23109732189425</v>
+        <v>36.27464352265598</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27.51492694000787</v>
+        <v>27.34772092826917</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.590282310516077</v>
+        <v>1.576230975101897</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9978443003696689</v>
+        <v>0.9951306024455534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7012951117817554</v>
+        <v>0.7014013844961097</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4319110087039265</v>
+        <v>0.4286333112014343</v>
       </c>
     </row>
     <row r="16">
